--- a/Documentation/TestCases.xlsx
+++ b/Documentation/TestCases.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\School\CST-341\OtherFileNonsense\Workspace\SpringCLC\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3352F2D1-2377-411C-9A7B-94881D35ECE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11382B2-BF68-4E7A-B063-85F1079C719E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{59774C4E-BB0C-46C8-9D53-717A2C046DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="7" xr2:uid="{59774C4E-BB0C-46C8-9D53-717A2C046DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Use" sheetId="1" r:id="rId1"/>
-    <sheet name="Registration Use" sheetId="2" r:id="rId2"/>
-    <sheet name="Album Use" sheetId="3" r:id="rId3"/>
-    <sheet name="Song Use" sheetId="4" r:id="rId4"/>
+    <sheet name="Login Validation" sheetId="5" r:id="rId2"/>
+    <sheet name="Registration Use" sheetId="2" r:id="rId3"/>
+    <sheet name="Registration Validation" sheetId="6" r:id="rId4"/>
+    <sheet name="Album Use" sheetId="3" r:id="rId5"/>
+    <sheet name="Album Validation" sheetId="7" r:id="rId6"/>
+    <sheet name="Song Use" sheetId="4" r:id="rId7"/>
+    <sheet name="Song Validation" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="130">
   <si>
     <t>Project Name:</t>
   </si>
@@ -136,9 +140,6 @@
   </si>
   <si>
     <t>Functional Link on Login Page</t>
-  </si>
-  <si>
-    <t>Click the "New to SpringCLC?" link on login page</t>
   </si>
   <si>
     <t>User is registered and returned to the login page</t>
@@ -320,6 +321,164 @@
   </si>
   <si>
     <t>The song is removed and no longer visible</t>
+  </si>
+  <si>
+    <t>Log In Blank Form</t>
+  </si>
+  <si>
+    <t>A user can not attempt to log in using a blank form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the login button without filling out fields  </t>
+  </si>
+  <si>
+    <t>Validation messages are returned on both fields</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Log In Incorrect Length</t>
+  </si>
+  <si>
+    <t>A user can not attempt to log in using fields on invalid lengths</t>
+  </si>
+  <si>
+    <t>Enter a username of more than 14 characters and a password of less than 7 characters</t>
+  </si>
+  <si>
+    <t>Username: 123456789123456789
+Password: pass</t>
+  </si>
+  <si>
+    <t>Register Blank Form</t>
+  </si>
+  <si>
+    <t>A user cannot submit a blank registration form</t>
+  </si>
+  <si>
+    <t>1.Click the "New to SpringCLC?" link on login page
+2. Fill out the fields on the form
+Click the 'register' button</t>
+  </si>
+  <si>
+    <t>User has navigated to the registration page</t>
+  </si>
+  <si>
+    <t>1. Click the 'sign up' button without filling out any fields</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>Validation messages are returned on all  fields</t>
+  </si>
+  <si>
+    <t>Validation messages are returned on all fields</t>
+  </si>
+  <si>
+    <t>Incorrect Field Length</t>
+  </si>
+  <si>
+    <t>A user cannot submit a form with fields that are too long or short</t>
+  </si>
+  <si>
+    <t>1. Fill out 'First Name', 'Last Name', 'Username', and 'Password' fields with only one letter
+2. Submit the form using the 'sign up' button</t>
+  </si>
+  <si>
+    <t>First Name: a
+Last Name: b
+Username: c
+Password: d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation messages are returned on invalid fields </t>
+  </si>
+  <si>
+    <t>Invalid Field Input</t>
+  </si>
+  <si>
+    <t>A user cannot submit a form with an invalid email or phone number</t>
+  </si>
+  <si>
+    <t>1. Fill out the email form with plain text, number, or other non-email format
+2. Fill out the phone number without dashes, with other special characters, or invalid length</t>
+  </si>
+  <si>
+    <t>Email: Hello@world@website.com
+Phone number: 111-222-3333-44444</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>A new album cannot be submitted with no data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press the 'Add Album' Button
+2. Submit the form without filling out fields </t>
+  </si>
+  <si>
+    <t>Add Album Blank Form</t>
+  </si>
+  <si>
+    <t>Update Album Blank Form</t>
+  </si>
+  <si>
+    <t>An updated album cannot be submitted with no data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press the 'Edit Album' Button
+2. Submit the form without filling out fields </t>
+  </si>
+  <si>
+    <t>Add Album Invalid Length</t>
+  </si>
+  <si>
+    <t>A new Album cannot be submitted with invalid field length</t>
+  </si>
+  <si>
+    <t>1. Click on the album to be updated
+2. Click on the "edit album" button
+3. Fill out every field with 45 characters
+4. Click the "edit album" button</t>
+  </si>
+  <si>
+    <t>All Forms: 
+123456789123456789123456789123456789123456789</t>
+  </si>
+  <si>
+    <t>Update Album Invalid Length</t>
+  </si>
+  <si>
+    <t>An updated cannot be submitted with invalid field length</t>
+  </si>
+  <si>
+    <t>1. Click on the "Add album" button
+2. Fill out every field with 45 characters
+3. Click the "add album" button</t>
+  </si>
+  <si>
+    <t>Validation messages are returned on both  fields</t>
+  </si>
+  <si>
+    <t>1. In an existing album, click the "add song" button on the top right of the album details page
+2. Click the "Add song" button without filling out fields</t>
+  </si>
+  <si>
+    <t>1. Press the gear icon next to a listed song
+2. Press the "edit song" button without filling out fields</t>
+  </si>
+  <si>
+    <t>1. In an existing album, click the "add song" button on the top right of the album details page
+2. Fill out both fields with 45 characters 
+3. Click the "Add song" button</t>
+  </si>
+  <si>
+    <t>1. Press the gear icon next to a listed song
+2. Fill out both fields with 45 characters 
+3. Press the "edit song" button</t>
   </si>
 </sst>
 </file>
@@ -564,19 +723,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,9 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -626,6 +773,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,124 +1102,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DD4BE0-41ED-4DDC-9D5D-6834A0538D83}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="15.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="10">
         <v>43779</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>43779</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="30">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1104,31 +1263,31 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>1</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1145,124 +1304,127 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8360C6E5-DBEE-48B2-952E-1CC4A4A00D48}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86F879E-E002-4B7D-A11D-39A5A7A9567D}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="15.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="10">
         <v>43779</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>43779</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="30">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="27" t="s">
         <v>25</v>
       </c>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="B7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1305,33 +1467,264 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8360C6E5-DBEE-48B2-952E-1CC4A4A00D48}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>43779</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43779</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="30">
+        <v>5</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="11" spans="1:10" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>1</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1343,125 +1736,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1957E8-C9CC-4BCE-A884-8F988729911F}">
-  <dimension ref="A1:J14"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C345FFF2-CE33-4A69-ACA9-DE449C5E6DBD}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="45.21875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="10">
         <v>43779</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>43779</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="30">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>40</v>
+      <c r="B6" s="22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>41</v>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>42</v>
+      <c r="B8" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1504,120 +1897,377 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:10" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1957E8-C9CC-4BCE-A884-8F988729911F}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="45.21875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>43779</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43779</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="30">
+        <v>5</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>1</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="F12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>2</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="C13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>3</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>4</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>39</v>
+      <c r="H14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +2280,294 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DDBC50-3963-4165-AB91-1E1ECEA69C1D}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="45.21875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>43779</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43779</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="30">
+        <v>5</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAE631C-5204-4326-B681-9A75BB27D9DE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -1640,120 +2577,120 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="10">
         <v>43779</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>43779</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="30">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="29"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1797,90 +2734,391 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>1</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="C12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C298088C-5687-4AA9-BAF1-49548B226F74}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23" style="13" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="E1" s="10">
+        <v>43779</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43779</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>81</v>
+      <c r="C3" s="30">
+        <v>5</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>2</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/TestCases.xlsx
+++ b/Documentation/TestCases.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\School\CST-341\OtherFileNonsense\Workspace\SpringCLC\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11382B2-BF68-4E7A-B063-85F1079C719E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953AC0D-8749-427D-922F-30D431C8F9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="7" xr2:uid="{59774C4E-BB0C-46C8-9D53-717A2C046DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="3" activeTab="11" xr2:uid="{59774C4E-BB0C-46C8-9D53-717A2C046DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Use" sheetId="1" r:id="rId1"/>
     <sheet name="Login Validation" sheetId="5" r:id="rId2"/>
-    <sheet name="Registration Use" sheetId="2" r:id="rId3"/>
-    <sheet name="Registration Validation" sheetId="6" r:id="rId4"/>
-    <sheet name="Album Use" sheetId="3" r:id="rId5"/>
-    <sheet name="Album Validation" sheetId="7" r:id="rId6"/>
-    <sheet name="Song Use" sheetId="4" r:id="rId7"/>
-    <sheet name="Song Validation" sheetId="8" r:id="rId8"/>
+    <sheet name="Login (Misc)" sheetId="9" r:id="rId3"/>
+    <sheet name="Registration Use" sheetId="2" r:id="rId4"/>
+    <sheet name="Registration Validation" sheetId="6" r:id="rId5"/>
+    <sheet name="Registration (Misc)" sheetId="10" r:id="rId6"/>
+    <sheet name="Album Use" sheetId="3" r:id="rId7"/>
+    <sheet name="Album Validation" sheetId="7" r:id="rId8"/>
+    <sheet name="Album (Misc)" sheetId="11" r:id="rId9"/>
+    <sheet name="Song Use" sheetId="4" r:id="rId10"/>
+    <sheet name="Song Validation" sheetId="8" r:id="rId11"/>
+    <sheet name="Song (Misc)" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="187">
   <si>
     <t>Project Name:</t>
   </si>
@@ -480,12 +484,218 @@
 2. Fill out both fields with 45 characters 
 3. Press the "edit song" button</t>
   </si>
+  <si>
+    <t>Low-High (Depending on test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(High Priority) Incorrect Login Credentials </t>
+  </si>
+  <si>
+    <t>If a user submits incorrect login credentials, an error message is returned</t>
+  </si>
+  <si>
+    <t>Log in with an username and password that fit form validation</t>
+  </si>
+  <si>
+    <t>Username: Hello
+Password: WorldWorld</t>
+  </si>
+  <si>
+    <t>Error message warns of incorrect credentials</t>
+  </si>
+  <si>
+    <t>(High Priority) Database Disconnect is Handled</t>
+  </si>
+  <si>
+    <t>This module handles a database connection failure appropriately</t>
+  </si>
+  <si>
+    <t>Turn off MAMP or sabatoge database connection and attempt to use module normally</t>
+  </si>
+  <si>
+    <t>Error message states that an unexpected error has occurred</t>
+  </si>
+  <si>
+    <t>(Low Priority) A logged on user cannot log in again</t>
+  </si>
+  <si>
+    <t>Forcibly navigating back to the login page while logged in returns some manner of error</t>
+  </si>
+  <si>
+    <t>1. Log in with valid credentials
+2. Navigate directly to localhost:8080/SpringCLC/login/portal
+3. Attempt to log in</t>
+  </si>
+  <si>
+    <t>Username: MSillanp
+Password: password</t>
+  </si>
+  <si>
+    <t>App allows second log in</t>
+  </si>
+  <si>
+    <t>Pass?</t>
+  </si>
+  <si>
+    <t>Not sure this one matters, at the end of the day</t>
+  </si>
+  <si>
+    <t>(Low Priority) A logged on user cannot log in as a different user</t>
+  </si>
+  <si>
+    <t>Forcibly navigating back to the login page and logging in as a different user while logged in returns some manner of error</t>
+  </si>
+  <si>
+    <t>1. Log in with valid credentials
+2. Navigate directly to localhost:8080/SpringCLC/login/portal
+3. Attempt to log in as a different user</t>
+  </si>
+  <si>
+    <t>Username: MSillanp
+Password: password
+Username: RedWolfHood
+Password: password</t>
+  </si>
+  <si>
+    <t>App logs in as second user, seems to overwrite first user</t>
+  </si>
+  <si>
+    <t>This is a weird thing for a user to try and do. At some point we could put measures against it but it doesn’t really hurt anyone</t>
+  </si>
+  <si>
+    <t>(High Priority) A user cannot register with a duplicate username</t>
+  </si>
+  <si>
+    <t>This module does not allow a user to register with a username that is already taken</t>
+  </si>
+  <si>
+    <t>1. A user fills out the form with valid data, except for a username which is already taken
+2. User attempts to submit the form</t>
+  </si>
+  <si>
+    <t>Username: Msillanp</t>
+  </si>
+  <si>
+    <t>Error Message states that that username is not available</t>
+  </si>
+  <si>
+    <t>Error Message states that "email" is not available</t>
+  </si>
+  <si>
+    <t>Close Enough</t>
+  </si>
+  <si>
+    <t>We need to change the word email to username in the return message at some point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Medium Priority) Duplicate Album Creation </t>
+  </si>
+  <si>
+    <t>An album cannot be created if that album already exists</t>
+  </si>
+  <si>
+    <t>1. Press the "Add Album" button to open the modal
+2. Fill out the form with duplicate Name and artist fields (For this user)
+3.Click "Create Album"</t>
+  </si>
+  <si>
+    <t>Name: NewAlbum
+Artist: NewArtist</t>
+  </si>
+  <si>
+    <t>Error message states that this album already exists</t>
+  </si>
+  <si>
+    <t>Database is not affected</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Error message states that this album already exists
+HOWEVER, this happens even if a different user attempts to add the same album</t>
+  </si>
+  <si>
+    <t>The current logic doesn't work the way we have the app set up. If the created albums went somewhere that all users could browse, it would work, but as it is, each user should be allowed to create the same album</t>
+  </si>
+  <si>
+    <t>(Low Priority) Attempting to act on a deleted album</t>
+  </si>
+  <si>
+    <t>If a user opens an album, opens a new tab and deletes that album, then attempts to act on the album in the first tab, the program should handle it</t>
+  </si>
+  <si>
+    <t>1. Access a certain album
+2. In a new tab, open then delete that album
+3. Attempt to edit, add to, or delete that album</t>
+  </si>
+  <si>
+    <t>Database is not affected by second action</t>
+  </si>
+  <si>
+    <t>Error message states "There was a problem with [updating] your album". This means the operation is passing the logical checks and not throwing  any exceptions- including SQL- but is failing as an action with no result</t>
+  </si>
+  <si>
+    <t>debatable</t>
+  </si>
+  <si>
+    <r>
+      <t>On one hand, the application is handling the issue. 
+On the other, it seems to be bypassing logic that should throw an exception.
+On the other hand, this is an obscure error that a user Shouldn't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>™ encounter
+On the final hand, it could mean that our code warrants investigation</t>
+    </r>
+  </si>
+  <si>
+    <t>(Low Priority) Attempting to act on a deleted song</t>
+  </si>
+  <si>
+    <t>If a user opens an album, opens a new tab and deletes a song, then attempts to act on the song in the first tab, the program should handle it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Medium Priority) Duplicate Song Creation </t>
+  </si>
+  <si>
+    <t>A song cannot be created if that song already exists</t>
+  </si>
+  <si>
+    <t>Name: NewSong
+Artist: NewArtist</t>
+  </si>
+  <si>
+    <t>Error message states that this song already exists in this album</t>
+  </si>
+  <si>
+    <t>1. Access a certain album
+2. In a new tab, open then delete a song in that album
+3. Attempt to edit or delete that song in the first tab</t>
+  </si>
+  <si>
+    <t>Error message states that this song already exists, but only within the same album</t>
+  </si>
+  <si>
+    <t>1. Press the "Add song" button to open the modal
+2. Fill out the form with duplicate Name and artist fields (For this album)
+3.Click "Create song"</t>
+  </si>
+  <si>
+    <t>Error message states "There was a problem with [updating] your song". This means the operation is passing the logical checks and not throwing  any exceptions- including SQL- but is failing as an action with no result</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +759,12 @@
     <font>
       <sz val="8"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -694,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -773,6 +989,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1122,7 +1341,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1144,7 +1363,7 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1168,12 +1387,12 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1195,28 +1414,28 @@
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
@@ -1298,6 +1517,847 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAE631C-5204-4326-B681-9A75BB27D9DE}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>43779</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43779</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="31">
+        <v>5</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C298088C-5687-4AA9-BAF1-49548B226F74}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23" style="13" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>43779</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43779</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="31">
+        <v>5</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>2</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B27E67-9BC1-441B-B114-441632180206}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="44.44140625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>43779</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43779</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="31">
+        <v>5</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1327,7 +2387,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1349,7 +2409,7 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1373,12 +2433,12 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1400,28 +2460,28 @@
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
@@ -1538,6 +2598,305 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B1330E-88AC-46AA-81E4-71525AE7C87D}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>43779</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43779</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="31">
+        <v>5</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8360C6E5-DBEE-48B2-952E-1CC4A4A00D48}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1561,7 +2920,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1583,7 +2942,7 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1607,12 +2966,12 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1736,7 +3095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C345FFF2-CE33-4A69-ACA9-DE449C5E6DBD}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -1760,7 +3119,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1782,7 +3141,7 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1806,12 +3165,12 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1993,12 +3352,248 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165093C1-BACC-45BA-B8E1-B42F17B9284D}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>43779</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43779</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="31">
+        <v>5</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1957E8-C9CC-4BCE-A884-8F988729911F}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2017,7 +3612,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2039,7 +3634,7 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2063,12 +3658,12 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -2280,12 +3875,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DDBC50-3963-4165-AB91-1E1ECEA69C1D}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2304,7 +3899,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2326,7 +3921,7 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2350,12 +3945,12 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -2567,37 +4162,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAE631C-5204-4326-B681-9A75BB27D9DE}">
-  <dimension ref="A1:J13"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9C71AF-CFC4-4147-93EE-0D5D316F3791}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="54.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="45.21875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="13" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="51.33203125" style="13" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -2613,12 +4208,12 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>23</v>
+      <c r="C2" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>4</v>
@@ -2637,12 +4232,12 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -2664,29 +4259,24 @@
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>8</v>
+      <c r="B8" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2701,7 +4291,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2733,92 +4323,102 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>77</v>
+        <v>164</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>80</v>
+        <v>170</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>84</v>
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>84</v>
+        <v>173</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2826,306 +4426,6 @@
     <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C298088C-5687-4AA9-BAF1-49548B226F74}">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23" style="13" customWidth="1"/>
-    <col min="3" max="3" width="48.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10">
-        <v>43779</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="12">
-        <v>43779</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="30">
-        <v>5</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>2</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>3</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>2</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>